--- a/04-item-allocation/code/winner.xlsx
+++ b/04-item-allocation/code/winner.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5781\04-item-allocation\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C468F63E-95FE-4EBE-888B-3B949CB76197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="x" vbProcedure="false">Sheet1!$B$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="x" vbProcedure="false">Sheet2!$B$12</definedName>
+    <definedName name="x" localSheetId="0">Sheet2!$B$12</definedName>
+    <definedName name="x">Sheet1!$B$11</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,185 +42,185 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">נושא</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>נושא</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">תכשיטים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אחוזת
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>תכשיטים</t>
+  </si>
+  <si>
+    <t>אחוזת
 גריניץ</t>
   </si>
   <si>
-    <t xml:space="preserve">משמורת
+    <t>משמורת
 ילדים</t>
   </si>
   <si>
-    <t xml:space="preserve">בית נופש
+    <t>בית נופש
 בפלורידה</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">סה</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>סה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">כ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>כ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">דונאלד</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>דונאלד</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">איואנה</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>איואנה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">יחס</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>יחס</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">סכום דונאלד</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>סכום דונאלד</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">סכום איואנה</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>סכום איואנה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">משוואה</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>משוואה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
+      <t>:</t>
     </r>
   </si>
   <si>
@@ -225,7 +238,7 @@
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">כמה איואנה מקבלת מהחפץ שחולק</t>
+      <t>כמה איואנה מקבלת מהחפץ שחולק</t>
     </r>
     <r>
       <rPr>
@@ -233,73 +246,73 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">פתרון</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>פתרון</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">סופי דונאלד</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>סופי דונאלד</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">סופי איואנה</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>סופי איואנה</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
@@ -308,47 +321,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">r:</t>
+      <t>r:</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
       <family val="2"/>
@@ -359,13 +355,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -410,7 +406,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -418,133 +414,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -603,38 +534,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="52.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,180 +900,180 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>15</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>40</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>30</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="n">
-        <f aca="false">SUM(C2:I2)</f>
+      <c r="K2" s="3">
+        <f>SUM(C2:I2)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>40</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>25</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>30</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>5</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="n">
-        <f aca="false">SUM(C3:I3)</f>
+      <c r="K3" s="5">
+        <f>SUM(C3:I3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="8" t="n">
-        <f aca="false">C2/C3</f>
+      <c r="C5" s="8">
+        <f>C2/C3</f>
         <v>0.375</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="n">
-        <f aca="false">E2/E3</f>
+      <c r="E5" s="8">
+        <f>E2/E3</f>
         <v>0.6</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8" t="n">
-        <f aca="false">G2/G3</f>
-        <v>1.33333333333333</v>
+      <c r="G5" s="8">
+        <f>G2/G3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="8" t="n">
-        <f aca="false">I2/I3</f>
+      <c r="I5" s="8">
+        <f>I2/I3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <f aca="false">SUM(B2:$J$2)</f>
+      <c r="B7" s="10">
+        <f>SUM(B2:$J$2)</f>
         <v>100</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="10" t="n">
-        <f aca="false">SUM(D2:$J$2)</f>
+      <c r="D7" s="10">
+        <f>SUM(D2:$J$2)</f>
         <v>85</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="9" t="n">
-        <f aca="false">SUM(F2:$J$2)</f>
+      <c r="F7" s="9">
+        <f>SUM(F2:$J$2)</f>
         <v>70</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="9" t="n">
-        <f aca="false">SUM(H2:$J$2)</f>
+      <c r="H7" s="9">
+        <f>SUM(H2:$J$2)</f>
         <v>30</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="10" t="n">
-        <f aca="false">SUM(J2:$J$2)</f>
+      <c r="J7" s="10">
+        <f>SUM(J2:$J$2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <f aca="false">SUM($B$3:B3)</f>
+      <c r="B8" s="11">
+        <f>SUM($B$3:B3)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="n">
-        <f aca="false">SUM($B$3:D3)</f>
+      <c r="D8" s="11">
+        <f>SUM($B$3:D3)</f>
         <v>40</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="12" t="n">
-        <f aca="false">SUM($B$3:F3)</f>
+      <c r="F8" s="12">
+        <f>SUM($B$3:F3)</f>
         <v>65</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="12" t="n">
-        <f aca="false">SUM($B$3:H3)</f>
+      <c r="H8" s="12">
+        <f>SUM($B$3:H3)</f>
         <v>95</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="n">
-        <f aca="false">SUM($B$3:J3)</f>
+      <c r="J8" s="11">
+        <f>SUM($B$3:J3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="1:11">
+      <c r="B9" s="1">
         <v>67</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>67</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>54</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>90</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(F8,"+",G3,"x = ",H7,"+",G2,"(1-x)")</f>
+        <f>_xlfn.CONCAT(F8,"+",G3,"x = ",H7,"+",G2,"(1-x)")</f>
         <v>65+30x = 30+40(1-x)</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11">
       <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <f aca="false">(H7-F8+G2)/(G3+G2)</f>
-        <v>0.0714285714285714</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1">
+        <f>(H7-F8+G2)/(G3+G2)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
@@ -841,15 +1082,15 @@
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="17" t="n">
-        <f aca="false">H7+(1-x)*G2</f>
-        <v>67.1428571428571</v>
+      <c r="G14" s="17">
+        <f>H7+(1-x)*G2</f>
+        <v>67.142857142857139</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="16"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -858,46 +1099,45 @@
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="17" t="n">
-        <f aca="false">F8+x*G3</f>
-        <v>67.1428571428571</v>
+      <c r="G15" s="17">
+        <f>F8+x*G3</f>
+        <v>67.142857142857139</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" s="6" customFormat="1">
       <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="19" t="n">
-        <f aca="false">C3*$G$5</f>
-        <v>53.3333333333333</v>
+      <c r="C17" s="19">
+        <f>C3*$G$5</f>
+        <v>53.333333333333329</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="19" t="n">
-        <f aca="false">E3*$G$5</f>
-        <v>33.3333333333333</v>
+      <c r="E17" s="19">
+        <f>E3*$G$5</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="19" t="n">
-        <f aca="false">G3*$G$5</f>
+      <c r="G17" s="19">
+        <f>G3*$G$5</f>
         <v>40</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="19" t="n">
-        <f aca="false">I3*$G$5</f>
-        <v>6.66666666666667</v>
+      <c r="I17" s="19">
+        <f>I3*$G$5</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -905,32 +1145,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="52.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,160 +1190,160 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="6" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>15</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>40</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>30</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="n">
-        <f aca="false">SUM(C2:I2)</f>
+      <c r="K2" s="3">
+        <f>SUM(C2:I2)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>40</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>25</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>30</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>5</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="n">
-        <f aca="false">SUM(C3:I3)</f>
+      <c r="K3" s="5">
+        <f>SUM(C3:I3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="8" t="n">
-        <f aca="false">C2/C3</f>
+      <c r="C5" s="8">
+        <f>C2/C3</f>
         <v>0.375</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="n">
-        <f aca="false">E2/E3</f>
+      <c r="E5" s="8">
+        <f>E2/E3</f>
         <v>0.6</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8" t="n">
-        <f aca="false">G2/G3</f>
-        <v>1.33333333333333</v>
+      <c r="G5" s="8">
+        <f>G2/G3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="8" t="n">
-        <f aca="false">I2/I3</f>
+      <c r="I5" s="8">
+        <f>I2/I3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <f aca="false">SUM(B2:$J$2)</f>
+      <c r="B7" s="10">
+        <f>SUM(B2:$J$2)</f>
         <v>100</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="10" t="n">
-        <f aca="false">SUM(D2:$J$2)</f>
+      <c r="D7" s="10">
+        <f>SUM(D2:$J$2)</f>
         <v>85</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="9" t="n">
-        <f aca="false">SUM(F2:$J$2)</f>
+      <c r="F7" s="9">
+        <f>SUM(F2:$J$2)</f>
         <v>70</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="9" t="n">
-        <f aca="false">SUM(H2:$J$2)</f>
+      <c r="H7" s="9">
+        <f>SUM(H2:$J$2)</f>
         <v>30</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="10" t="n">
-        <f aca="false">SUM(J2:$J$2)</f>
+      <c r="J7" s="10">
+        <f>SUM(J2:$J$2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="n">
-        <f aca="false">SUM($B$3:B3)</f>
+      <c r="B8" s="11">
+        <f>SUM($B$3:B3)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="n">
-        <f aca="false">SUM($B$3:D3)</f>
+      <c r="D8" s="11">
+        <f>SUM($B$3:D3)</f>
         <v>40</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="12" t="n">
-        <f aca="false">SUM($B$3:F3)</f>
+      <c r="F8" s="12">
+        <f>SUM($B$3:F3)</f>
         <v>65</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="12" t="n">
-        <f aca="false">SUM($B$3:H3)</f>
+      <c r="H8" s="12">
+        <f>SUM($B$3:H3)</f>
         <v>95</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="n">
-        <f aca="false">SUM($B$3:J3)</f>
+      <c r="J8" s="11">
+        <f>SUM($B$3:J3)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f aca="false">_xlfn.CONCAT(F8,"+",G3,"x = ",H7,"+",G2,"(1-x)")</f>
+        <f>_xlfn.CONCAT(F8,"+",G3,"x = ",H7,"+",G2,"(1-x)")</f>
         <v>65+30x = 30+40(1-x)</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <f aca="false">(H7-F8+G2)/(G3+G2)</f>
-        <v>0.0714285714285714</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1">
+        <f>(H7-F8+G2)/(G3+G2)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1117,15 +1352,15 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="17" t="n">
-        <f aca="false">H7+(1-x)*G2</f>
-        <v>67.1428571428571</v>
+      <c r="G13" s="17">
+        <f>H7+(1-x)*G2</f>
+        <v>67.142857142857139</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="16"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1134,46 +1369,45 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="17" t="n">
-        <f aca="false">F8+x*G3</f>
-        <v>67.1428571428571</v>
+      <c r="G14" s="17">
+        <f>F8+x*G3</f>
+        <v>67.142857142857139</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" s="6" customFormat="1">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="19" t="n">
-        <f aca="false">C3*$G$5</f>
-        <v>53.3333333333333</v>
+      <c r="C16" s="19">
+        <f>C3*$G$5</f>
+        <v>53.333333333333329</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="19" t="n">
-        <f aca="false">E3*$G$5</f>
-        <v>33.3333333333333</v>
+      <c r="E16" s="19">
+        <f>E3*$G$5</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="19" t="n">
-        <f aca="false">G3*$G$5</f>
+      <c r="G16" s="19">
+        <f>G3*$G$5</f>
         <v>40</v>
       </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="19" t="n">
-        <f aca="false">I3*$G$5</f>
-        <v>6.66666666666667</v>
+      <c r="I16" s="19">
+        <f>I3*$G$5</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
